--- a/Modello/nuovi modelli/CasiTest/test5/DMU/dmu-6.xlsx
+++ b/Modello/nuovi modelli/CasiTest/test5/DMU/dmu-6.xlsx
@@ -18,6 +18,14 @@
     <definedName name="ADDITIVE_6">ANNO1!$B$7</definedName>
     <definedName name="ADDITIVE_7">ANNO1!$B$8</definedName>
     <definedName name="ADDITIVE_9">ANNO1!$B$9</definedName>
+    <definedName name="AR_1">ANNO1!$L$2</definedName>
+    <definedName name="AR_2">ANNO1!$L$3</definedName>
+    <definedName name="AR_3">ANNO1!$L$4</definedName>
+    <definedName name="AR_4">ANNO1!$L$5</definedName>
+    <definedName name="AR_5">ANNO1!$L$6</definedName>
+    <definedName name="AR_6">ANNO1!$L$7</definedName>
+    <definedName name="AR_7">ANNO1!$L$8</definedName>
+    <definedName name="AR_9">ANNO1!$L$9</definedName>
     <definedName name="BCC_1">ANNO1!$C$2</definedName>
     <definedName name="BCC_2">ANNO1!$C$3</definedName>
     <definedName name="BCC_3">ANNO1!$C$4</definedName>
@@ -26,46 +34,86 @@
     <definedName name="BCC_6">ANNO1!$C$7</definedName>
     <definedName name="BCC_7">ANNO1!$C$8</definedName>
     <definedName name="BCC_9">ANNO1!$C$9</definedName>
-    <definedName name="BCC_O1">ANNO1!$D$2</definedName>
-    <definedName name="BCC_O2">ANNO1!$D$3</definedName>
-    <definedName name="BCC_O3">ANNO1!$D$4</definedName>
-    <definedName name="BCC_O4">ANNO1!$D$5</definedName>
-    <definedName name="BCC_O5">ANNO1!$D$6</definedName>
-    <definedName name="BCC_O6">ANNO1!$D$7</definedName>
-    <definedName name="BCC_O7">ANNO1!$D$8</definedName>
-    <definedName name="BCC_O9">ANNO1!$D$9</definedName>
-    <definedName name="CCR_1">ANNO1!$E$2</definedName>
-    <definedName name="CCR_2">ANNO1!$E$3</definedName>
-    <definedName name="CCR_3">ANNO1!$E$4</definedName>
-    <definedName name="CCR_4">ANNO1!$E$5</definedName>
-    <definedName name="CCR_5">ANNO1!$E$6</definedName>
-    <definedName name="CCR_6">ANNO1!$E$7</definedName>
-    <definedName name="CCR_7">ANNO1!$E$8</definedName>
-    <definedName name="CCR_9">ANNO1!$E$9</definedName>
-    <definedName name="CCR_O1">ANNO1!$F$2</definedName>
-    <definedName name="CCR_O2">ANNO1!$F$3</definedName>
-    <definedName name="CCR_O3">ANNO1!$F$4</definedName>
-    <definedName name="CCR_O4">ANNO1!$F$5</definedName>
-    <definedName name="CCR_O5">ANNO1!$F$6</definedName>
-    <definedName name="CCR_O6">ANNO1!$F$7</definedName>
-    <definedName name="CCR_O7">ANNO1!$F$8</definedName>
-    <definedName name="CCR_O9">ANNO1!$F$9</definedName>
-    <definedName name="HYBRID_1">ANNO1!$H$2</definedName>
-    <definedName name="HYBRID_2">ANNO1!$H$3</definedName>
-    <definedName name="HYBRID_3">ANNO1!$H$4</definedName>
-    <definedName name="HYBRID_4">ANNO1!$H$5</definedName>
-    <definedName name="HYBRID_5">ANNO1!$H$6</definedName>
-    <definedName name="HYBRID_6">ANNO1!$H$7</definedName>
-    <definedName name="HYBRID_7">ANNO1!$H$8</definedName>
-    <definedName name="HYBRID_9">ANNO1!$H$9</definedName>
-    <definedName name="SBM_1">ANNO1!$G$2</definedName>
-    <definedName name="SBM_2">ANNO1!$G$3</definedName>
-    <definedName name="SBM_3">ANNO1!$G$4</definedName>
-    <definedName name="SBM_4">ANNO1!$G$5</definedName>
-    <definedName name="SBM_5">ANNO1!$G$6</definedName>
-    <definedName name="SBM_6">ANNO1!$G$7</definedName>
-    <definedName name="SBM_7">ANNO1!$G$8</definedName>
-    <definedName name="SBM_9">ANNO1!$G$9</definedName>
+    <definedName name="BCC_DUAL1">ANNO1!$D$2</definedName>
+    <definedName name="BCC_DUAL2">ANNO1!$D$3</definedName>
+    <definedName name="BCC_DUAL3">ANNO1!$D$4</definedName>
+    <definedName name="BCC_DUAL4">ANNO1!$D$5</definedName>
+    <definedName name="BCC_DUAL5">ANNO1!$D$6</definedName>
+    <definedName name="BCC_DUAL6">ANNO1!$D$7</definedName>
+    <definedName name="BCC_DUAL7">ANNO1!$D$8</definedName>
+    <definedName name="BCC_DUAL9">ANNO1!$D$9</definedName>
+    <definedName name="BCC_O1">ANNO1!$E$2</definedName>
+    <definedName name="BCC_O2">ANNO1!$E$3</definedName>
+    <definedName name="BCC_O3">ANNO1!$E$4</definedName>
+    <definedName name="BCC_O4">ANNO1!$E$5</definedName>
+    <definedName name="BCC_O5">ANNO1!$E$6</definedName>
+    <definedName name="BCC_O6">ANNO1!$E$7</definedName>
+    <definedName name="BCC_O7">ANNO1!$E$8</definedName>
+    <definedName name="BCC_O9">ANNO1!$E$9</definedName>
+    <definedName name="CCR_1">ANNO1!$J$2</definedName>
+    <definedName name="CCR_2">ANNO1!$J$3</definedName>
+    <definedName name="CCR_3">ANNO1!$J$4</definedName>
+    <definedName name="CCR_4">ANNO1!$J$5</definedName>
+    <definedName name="CCR_5">ANNO1!$J$6</definedName>
+    <definedName name="CCR_6">ANNO1!$J$7</definedName>
+    <definedName name="CCR_7">ANNO1!$J$8</definedName>
+    <definedName name="CCR_9">ANNO1!$J$9</definedName>
+    <definedName name="CCR_O1">ANNO1!$K$2</definedName>
+    <definedName name="CCR_O2">ANNO1!$K$3</definedName>
+    <definedName name="CCR_O3">ANNO1!$K$4</definedName>
+    <definedName name="CCR_O4">ANNO1!$K$5</definedName>
+    <definedName name="CCR_O5">ANNO1!$K$6</definedName>
+    <definedName name="CCR_O6">ANNO1!$K$7</definedName>
+    <definedName name="CCR_O7">ANNO1!$K$8</definedName>
+    <definedName name="CCR_O9">ANNO1!$K$9</definedName>
+    <definedName name="DRS_1">ANNO1!$G$2</definedName>
+    <definedName name="DRS_2">ANNO1!$G$3</definedName>
+    <definedName name="DRS_3">ANNO1!$G$4</definedName>
+    <definedName name="DRS_4">ANNO1!$G$5</definedName>
+    <definedName name="DRS_5">ANNO1!$G$6</definedName>
+    <definedName name="DRS_6">ANNO1!$G$7</definedName>
+    <definedName name="DRS_7">ANNO1!$G$8</definedName>
+    <definedName name="DRS_9">ANNO1!$G$9</definedName>
+    <definedName name="FDH_1">ANNO1!$I$2</definedName>
+    <definedName name="FDH_2">ANNO1!$I$3</definedName>
+    <definedName name="FDH_3">ANNO1!$I$4</definedName>
+    <definedName name="FDH_4">ANNO1!$I$5</definedName>
+    <definedName name="FDH_5">ANNO1!$I$6</definedName>
+    <definedName name="FDH_6">ANNO1!$I$7</definedName>
+    <definedName name="FDH_7">ANNO1!$I$8</definedName>
+    <definedName name="FDH_9">ANNO1!$I$9</definedName>
+    <definedName name="GRS_1">ANNO1!$H$2</definedName>
+    <definedName name="GRS_2">ANNO1!$H$3</definedName>
+    <definedName name="GRS_3">ANNO1!$H$4</definedName>
+    <definedName name="GRS_4">ANNO1!$H$5</definedName>
+    <definedName name="GRS_5">ANNO1!$H$6</definedName>
+    <definedName name="GRS_6">ANNO1!$H$7</definedName>
+    <definedName name="GRS_7">ANNO1!$H$8</definedName>
+    <definedName name="GRS_9">ANNO1!$H$9</definedName>
+    <definedName name="HYBRID_1">ANNO1!$N$2</definedName>
+    <definedName name="HYBRID_2">ANNO1!$N$3</definedName>
+    <definedName name="HYBRID_3">ANNO1!$N$4</definedName>
+    <definedName name="HYBRID_4">ANNO1!$N$5</definedName>
+    <definedName name="HYBRID_5">ANNO1!$N$6</definedName>
+    <definedName name="HYBRID_6">ANNO1!$N$7</definedName>
+    <definedName name="HYBRID_7">ANNO1!$N$8</definedName>
+    <definedName name="HYBRID_9">ANNO1!$N$9</definedName>
+    <definedName name="IRS_1">ANNO1!$F$2</definedName>
+    <definedName name="IRS_2">ANNO1!$F$3</definedName>
+    <definedName name="IRS_3">ANNO1!$F$4</definedName>
+    <definedName name="IRS_4">ANNO1!$F$5</definedName>
+    <definedName name="IRS_5">ANNO1!$F$6</definedName>
+    <definedName name="IRS_6">ANNO1!$F$7</definedName>
+    <definedName name="IRS_7">ANNO1!$F$8</definedName>
+    <definedName name="IRS_9">ANNO1!$F$9</definedName>
+    <definedName name="SBM_1">ANNO1!$M$2</definedName>
+    <definedName name="SBM_2">ANNO1!$M$3</definedName>
+    <definedName name="SBM_3">ANNO1!$M$4</definedName>
+    <definedName name="SBM_4">ANNO1!$M$5</definedName>
+    <definedName name="SBM_5">ANNO1!$M$6</definedName>
+    <definedName name="SBM_6">ANNO1!$M$7</definedName>
+    <definedName name="SBM_7">ANNO1!$M$8</definedName>
+    <definedName name="SBM_9">ANNO1!$M$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,6 +170,24 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>BCC-DUAL</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>GRS</t>
+  </si>
+  <si>
+    <t>FHD</t>
+  </si>
+  <si>
+    <t>AR-CCR</t>
   </si>
 </sst>
 </file>
@@ -439,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,14 +516,17 @@
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -465,57 +534,75 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
